--- a/xls_node/stock/주식정보.xlsx
+++ b/xls_node/stock/주식정보.xlsx
@@ -1,21 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\20200228start\xls_node\stock\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BP364\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D96AFE1-9B85-4EA2-BA82-CF3BAE99E49D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E13C1E8A-1A10-468F-A1B2-C3BFC758A485}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="매매일지" sheetId="1" r:id="rId1"/>
+    <sheet name="KT" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">KT!$A$1:$J$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">매매일지!$A$1:$H$1</definedName>
+  </definedNames>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="43">
   <si>
     <t>종목</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -85,12 +89,106 @@
   <si>
     <t>매수</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>날짜</t>
+  </si>
+  <si>
+    <t>종가</t>
+  </si>
+  <si>
+    <t>전일비</t>
+  </si>
+  <si>
+    <t>시가</t>
+  </si>
+  <si>
+    <t>고가</t>
+  </si>
+  <si>
+    <t>저가</t>
+  </si>
+  <si>
+    <t>거래량</t>
+  </si>
+  <si>
+    <t>2022.08.05</t>
+  </si>
+  <si>
+    <t>상승 350</t>
+  </si>
+  <si>
+    <t>2022.08.04</t>
+  </si>
+  <si>
+    <t>상승 150</t>
+  </si>
+  <si>
+    <t>2022.08.03</t>
+  </si>
+  <si>
+    <t>하락 250</t>
+  </si>
+  <si>
+    <t>2022.08.02</t>
+  </si>
+  <si>
+    <t>하락 650</t>
+  </si>
+  <si>
+    <t>2022.08.01</t>
+  </si>
+  <si>
+    <t>상승 600</t>
+  </si>
+  <si>
+    <t>2022.07.29</t>
+  </si>
+  <si>
+    <t>상승 300</t>
+  </si>
+  <si>
+    <t>2022.07.28</t>
+  </si>
+  <si>
+    <t>2022.07.27</t>
+  </si>
+  <si>
+    <t>2022.07.26</t>
+  </si>
+  <si>
+    <t>상승 50</t>
+  </si>
+  <si>
+    <t>2022.07.25</t>
+  </si>
+  <si>
+    <t>날짜형식</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상하</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>변동폭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상승</t>
+  </si>
+  <si>
+    <t>상승</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>하락</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -116,7 +214,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -126,6 +224,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -161,7 +265,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -169,6 +273,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -485,10 +601,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E53493A-CC7F-47A9-8362-9F1C522F24D8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
@@ -540,6 +656,7 @@
       <c r="D2">
         <v>120</v>
       </c>
+      <c r="E2" s="3"/>
       <c r="F2" t="s">
         <v>9</v>
       </c>
@@ -554,6 +671,10 @@
       <c r="D3">
         <v>6</v>
       </c>
+      <c r="E3" s="3">
+        <f>VLOOKUP(C3,KT!B2:J11,2,FALSE)</f>
+        <v>37700</v>
+      </c>
       <c r="F3" t="s">
         <v>12</v>
       </c>
@@ -568,12 +689,390 @@
       <c r="D4">
         <v>8</v>
       </c>
+      <c r="E4" s="3"/>
       <c r="F4" t="s">
         <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:H1"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.875" customWidth="1"/>
+    <col min="2" max="2" width="14.25" customWidth="1"/>
+    <col min="3" max="3" width="10.125" customWidth="1"/>
+    <col min="6" max="6" width="7.5" customWidth="1"/>
+    <col min="9" max="9" width="10.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="2">
+        <v>44767</v>
+      </c>
+      <c r="C2" s="3">
+        <v>37350</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2">
+        <v>350</v>
+      </c>
+      <c r="G2" s="3">
+        <v>37300</v>
+      </c>
+      <c r="H2" s="3">
+        <v>37650</v>
+      </c>
+      <c r="I2" s="3">
+        <v>37200</v>
+      </c>
+      <c r="J2" s="3">
+        <v>738581</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="4">
+        <v>44768</v>
+      </c>
+      <c r="C3" s="6">
+        <v>37400</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3">
+        <v>400</v>
+      </c>
+      <c r="G3" s="6">
+        <v>37350</v>
+      </c>
+      <c r="H3" s="6">
+        <v>37600</v>
+      </c>
+      <c r="I3" s="6">
+        <v>37250</v>
+      </c>
+      <c r="J3" s="6">
+        <v>500746</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="2">
+        <v>44769</v>
+      </c>
+      <c r="C4" s="3">
+        <v>37700</v>
+      </c>
+      <c r="D4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4">
+        <v>700</v>
+      </c>
+      <c r="G4" s="3">
+        <v>37800</v>
+      </c>
+      <c r="H4" s="3">
+        <v>37900</v>
+      </c>
+      <c r="I4" s="3">
+        <v>37500</v>
+      </c>
+      <c r="J4" s="3">
+        <v>738413</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="2">
+        <v>44770</v>
+      </c>
+      <c r="C5" s="3">
+        <v>37450</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5">
+        <v>450</v>
+      </c>
+      <c r="G5" s="3">
+        <v>37900</v>
+      </c>
+      <c r="H5" s="3">
+        <v>37950</v>
+      </c>
+      <c r="I5" s="3">
+        <v>37400</v>
+      </c>
+      <c r="J5" s="3">
+        <v>472066</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="2">
+        <v>44771</v>
+      </c>
+      <c r="C6" s="3">
+        <v>37750</v>
+      </c>
+      <c r="D6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6">
+        <v>750</v>
+      </c>
+      <c r="G6" s="3">
+        <v>37650</v>
+      </c>
+      <c r="H6" s="3">
+        <v>37900</v>
+      </c>
+      <c r="I6" s="3">
+        <v>37500</v>
+      </c>
+      <c r="J6" s="3">
+        <v>590080</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="2">
+        <v>44774</v>
+      </c>
+      <c r="C7" s="3">
+        <v>38350</v>
+      </c>
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7">
+        <v>350</v>
+      </c>
+      <c r="G7" s="3">
+        <v>37850</v>
+      </c>
+      <c r="H7" s="3">
+        <v>38400</v>
+      </c>
+      <c r="I7" s="3">
+        <v>37650</v>
+      </c>
+      <c r="J7" s="3">
+        <v>661075</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="2">
+        <v>44775</v>
+      </c>
+      <c r="C8" s="3">
+        <v>37700</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8">
+        <v>700</v>
+      </c>
+      <c r="G8" s="3">
+        <v>38250</v>
+      </c>
+      <c r="H8" s="3">
+        <v>38300</v>
+      </c>
+      <c r="I8" s="3">
+        <v>37700</v>
+      </c>
+      <c r="J8" s="3">
+        <v>612833</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="2">
+        <v>44776</v>
+      </c>
+      <c r="C9" s="3">
+        <v>37450</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9">
+        <v>450</v>
+      </c>
+      <c r="G9" s="3">
+        <v>37600</v>
+      </c>
+      <c r="H9" s="3">
+        <v>37750</v>
+      </c>
+      <c r="I9" s="3">
+        <v>37300</v>
+      </c>
+      <c r="J9" s="3">
+        <v>459299</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="2">
+        <v>44777</v>
+      </c>
+      <c r="C10" s="3">
+        <v>37600</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10">
+        <v>600</v>
+      </c>
+      <c r="G10" s="3">
+        <v>37500</v>
+      </c>
+      <c r="H10" s="3">
+        <v>37700</v>
+      </c>
+      <c r="I10" s="3">
+        <v>37350</v>
+      </c>
+      <c r="J10" s="3">
+        <v>477998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="2">
+        <v>44778</v>
+      </c>
+      <c r="C11" s="3">
+        <v>37950</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11">
+        <v>950</v>
+      </c>
+      <c r="G11" s="3">
+        <v>37700</v>
+      </c>
+      <c r="H11" s="3">
+        <v>38150</v>
+      </c>
+      <c r="I11" s="3">
+        <v>37600</v>
+      </c>
+      <c r="J11" s="3">
+        <v>534059</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/xls_node/stock/주식정보.xlsx
+++ b/xls_node/stock/주식정보.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BP364\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\20200228start\xls_node\stock\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D1A4287-0D5E-40B0-BB7E-C9ED8E961A61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="1"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="매매일지" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">KT!$A$1:$J$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">매매일지!$A$1:$H$1</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="45">
   <si>
     <t>종목</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -183,12 +184,20 @@
   </si>
   <si>
     <t>하락</t>
+  </si>
+  <si>
+    <t>대동전자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전량매도</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -601,11 +610,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -694,18 +703,32 @@
         <v>12</v>
       </c>
     </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="2">
+        <v>44782</v>
+      </c>
+      <c r="D5">
+        <v>1400</v>
+      </c>
+      <c r="F5" t="s">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:H1"/>
+  <autoFilter ref="A1:H1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
